--- a/turbine_chp_data/пт-турбина расчет.xlsx
+++ b/turbine_chp_data/пт-турбина расчет.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D7F68-1FC4-4AE9-B780-CECC140439D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="3" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Тех.минимумы" sheetId="1" r:id="rId3"/>
     <sheet name="ЭХ" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Гкал/ч</t>
   </si>
@@ -52,13 +51,22 @@
     <t>Мпа</t>
   </si>
   <si>
-    <t>Мощность П при макс Т расходе</t>
+    <t>альфа</t>
+  </si>
+  <si>
+    <t>эл. мощность П при макс Т расходе</t>
+  </si>
+  <si>
+    <t>эл. мощность дабавки для П режиме</t>
+  </si>
+  <si>
+    <t>китт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -124,11 +132,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,17 +174,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -171,13 +225,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -529,6 +583,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589371</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1200150"/>
+          <a:ext cx="9428571" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -794,38 +886,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.627</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.163</v>
       </c>
@@ -839,24 +935,32 @@
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -873,64 +977,79 @@
       <c r="F3" s="3">
         <v>1.2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3">
         <v>60</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>350</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>206</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M3" s="5">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <f>D7</f>
         <v>198.36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="N4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" t="s">
         <v>5</v>
       </c>
-      <c r="O4">
-        <f>I7-D7</f>
+      <c r="R4">
+        <f>K7-D7</f>
         <v>107.01999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="N5" t="s">
-        <v>9</v>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>41.98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
@@ -945,21 +1064,40 @@
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <f>J7-R5</f>
+        <v>18.020000000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3">
@@ -975,25 +1113,41 @@
         <f>F3*$A$3</f>
         <v>0.1176</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3">
+      <c r="G7" s="11">
+        <f>E7/C7</f>
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="H7" s="11">
+        <f>(C7+E7)/D7</f>
+        <v>0.91248235531357125</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3">
         <v>60</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>305.38</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>228</v>
       </c>
-      <c r="K7" s="3">
-        <f>K3*$A$3</f>
+      <c r="M7" s="3">
+        <f>M3*$A$3</f>
         <v>1.274</v>
+      </c>
+      <c r="N7" s="3">
+        <f>L7/J7</f>
+        <v>3.8</v>
+      </c>
+      <c r="O7" s="11">
+        <f>(J7+L7)/K7</f>
+        <v>0.94308730106752248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1002,10 +1156,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1032,11 +1186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E0B0CD-6574-47B1-873C-B39DA8F3FC61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
